--- a/src/test/resources/Excel-sheets/SampleExcel.xlsx
+++ b/src/test/resources/Excel-sheets/SampleExcel.xlsx
@@ -3,14 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\eclipse-workspace\AddSbu\src\test\resources\Excel-sheets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16665" windowHeight="2505"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16665" windowHeight="2505" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="EditPlant" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>admin</t>
   </si>
@@ -29,6 +34,18 @@
   </si>
   <si>
     <t>http://qa-automation-release.s3-website-us-east-1.amazonaws.com/#/login</t>
+  </si>
+  <si>
+    <t>RMC Jaffna Plant</t>
+  </si>
+  <si>
+    <t>No.2,Kokkuvil,Jaffna</t>
+  </si>
+  <si>
+    <t>94111111111</t>
+  </si>
+  <si>
+    <t>0766450923</t>
   </si>
 </sst>
 </file>
@@ -80,13 +97,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -370,7 +388,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -394,4 +412,41 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>